--- a/relatorio_atualizado.xlsx
+++ b/relatorio_atualizado.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="179">
   <si>
     <t>RELAÇÃO DE SERVIÇO - PROCESSO SIMPLIFICADO (de Janeiro a Outubro 2024)</t>
   </si>
@@ -260,16 +260,10 @@
     <t>RECANTO DAS EMAS III</t>
   </si>
   <si>
-    <t>INGA II</t>
-  </si>
-  <si>
     <t>Nenhum Valor</t>
   </si>
   <si>
     <t>22/08/2024 08:11</t>
-  </si>
-  <si>
-    <t>VILA GUARA</t>
   </si>
   <si>
     <t>ENGPOLO</t>
@@ -942,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,16 +1587,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2">
         <v>7085.4</v>
@@ -1614,16 +1608,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2">
         <v>14416.26</v>
@@ -1632,16 +1626,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2">
         <v>1645.8</v>
@@ -1650,10 +1644,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
@@ -1668,10 +1662,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
@@ -1688,10 +1682,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -1709,16 +1703,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2">
         <v>440</v>
@@ -1727,16 +1721,16 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2">
         <v>4010</v>
@@ -1748,16 +1742,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2">
         <v>1910</v>
@@ -1766,16 +1760,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="D49" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" t="s">
-        <v>99</v>
       </c>
       <c r="E49" s="2">
         <v>1700</v>
@@ -1787,16 +1781,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2">
         <v>340</v>
@@ -1805,10 +1799,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -1823,16 +1817,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2">
         <v>340</v>
@@ -1841,16 +1835,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2">
         <v>340</v>
@@ -1859,16 +1853,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2">
         <v>340</v>
@@ -1877,16 +1871,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="7">
         <v>1020</v>
@@ -1895,16 +1889,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" s="7">
         <v>340</v>
@@ -1913,13 +1907,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
         <v>103</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" t="s">
-        <v>105</v>
       </c>
       <c r="D57" s="1">
         <v>45516.644444444442</v>
@@ -1933,13 +1927,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
         <v>106</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" t="s">
-        <v>108</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -1954,16 +1948,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
         <v>107</v>
       </c>
-      <c r="C59" t="s">
-        <v>109</v>
-      </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2">
         <v>2100</v>
@@ -1972,16 +1966,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
         <v>107</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>109</v>
-      </c>
-      <c r="D60" t="s">
-        <v>111</v>
       </c>
       <c r="E60" s="2">
         <v>4800</v>
@@ -1990,16 +1984,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B61" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
         <v>107</v>
       </c>
-      <c r="C61" t="s">
-        <v>109</v>
-      </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2">
         <v>2090</v>
@@ -2008,16 +2002,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
         <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2">
         <v>2300</v>
@@ -2026,16 +2020,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
         <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2">
         <v>8790</v>
@@ -2044,16 +2038,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2">
         <v>6160</v>
@@ -2062,10 +2056,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -2080,16 +2074,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E66" s="7">
         <v>6860</v>
@@ -2098,10 +2092,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -2118,10 +2112,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -2138,16 +2132,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2">
         <v>7800</v>
@@ -2159,16 +2153,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2">
         <v>7800</v>
@@ -2177,10 +2171,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
         <v>36</v>
@@ -2197,16 +2191,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E72" s="7">
         <v>9600</v>
@@ -2218,7 +2212,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>75</v>
@@ -2227,7 +2221,7 @@
         <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2">
         <v>8990</v>
@@ -2236,13 +2230,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" t="s">
         <v>129</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" t="s">
-        <v>131</v>
       </c>
       <c r="D74" s="1">
         <v>45387.62777777778</v>
@@ -2257,16 +2251,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" t="s">
         <v>130</v>
       </c>
-      <c r="C75" t="s">
-        <v>132</v>
-      </c>
       <c r="D75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2">
         <v>1300</v>
@@ -2275,13 +2269,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
         <v>42</v>
@@ -2293,16 +2287,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
         <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2">
         <v>3900</v>
@@ -2311,16 +2305,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E78" s="7">
         <v>7300</v>
@@ -2329,13 +2323,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
         <v>59</v>
@@ -2347,16 +2341,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2">
         <v>7800</v>
@@ -2365,16 +2359,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2">
         <v>2180</v>
@@ -2383,16 +2377,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E82" s="7">
         <v>5000</v>
@@ -2401,16 +2395,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2">
         <v>1550</v>
@@ -2419,16 +2413,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E84" s="2">
         <v>1430</v>
@@ -2437,16 +2431,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E85" s="7">
         <v>2200</v>
@@ -2455,16 +2449,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
         <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E86" s="2">
         <v>1350</v>
@@ -2473,16 +2467,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" t="s">
         <v>148</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="D87" t="s">
         <v>149</v>
-      </c>
-      <c r="C87" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" t="s">
-        <v>151</v>
       </c>
       <c r="E87" s="2">
         <v>8480</v>
@@ -2494,16 +2488,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" t="s">
         <v>149</v>
-      </c>
-      <c r="C88" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" t="s">
-        <v>151</v>
       </c>
       <c r="E88" s="2">
         <v>10000</v>
@@ -2512,16 +2506,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2">
         <v>7741</v>
@@ -2533,16 +2527,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" t="s">
         <v>153</v>
       </c>
-      <c r="C90" t="s">
-        <v>155</v>
-      </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2">
         <v>1094</v>
@@ -2551,16 +2545,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E91" s="2">
         <v>820</v>
@@ -2569,16 +2563,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E92" s="7">
         <v>900</v>
@@ -2587,16 +2581,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C93" t="s">
         <v>77</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E93" s="2">
         <v>9257</v>
@@ -2605,16 +2599,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E94" s="2">
         <v>650</v>
@@ -2623,10 +2617,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
         <v>40</v>
@@ -2643,13 +2637,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" t="s">
         <v>164</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C96" t="s">
-        <v>166</v>
       </c>
       <c r="D96" s="1">
         <v>45547.64166666667</v>
@@ -2663,13 +2657,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" t="s">
         <v>167</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" t="s">
-        <v>169</v>
       </c>
       <c r="D97" s="1">
         <v>45537.454861111109</v>
@@ -2698,8 +2692,8 @@
         <v>7000</v>
       </c>
       <c r="F98" s="13">
-        <f>SUM(E98:E109)</f>
-        <v>102258.98</v>
+        <f>SUM(E98:E107)</f>
+        <v>82508.98</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2727,14 +2721,14 @@
       <c r="B100" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D100" s="6" t="s">
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" t="s">
         <v>79</v>
       </c>
-      <c r="E100" s="7">
-        <v>10000</v>
+      <c r="E100" s="2">
+        <v>5235</v>
       </c>
       <c r="F100" s="13"/>
     </row>
@@ -2746,13 +2740,13 @@
         <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="D101" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="E101" s="2">
-        <v>5235</v>
+        <v>9955</v>
       </c>
       <c r="F101" s="13"/>
     </row>
@@ -2763,14 +2757,14 @@
       <c r="B102" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E102" s="7">
-        <v>9750</v>
+      <c r="C102" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" s="2">
+        <v>9884.98</v>
       </c>
       <c r="F102" s="13"/>
     </row>
@@ -2788,7 +2782,7 @@
         <v>170</v>
       </c>
       <c r="E103" s="2">
-        <v>9955</v>
+        <v>9048</v>
       </c>
       <c r="F103" s="13"/>
     </row>
@@ -2806,7 +2800,7 @@
         <v>171</v>
       </c>
       <c r="E104" s="2">
-        <v>9884.98</v>
+        <v>7650</v>
       </c>
       <c r="F104" s="13"/>
     </row>
@@ -2824,7 +2818,7 @@
         <v>172</v>
       </c>
       <c r="E105" s="2">
-        <v>9048</v>
+        <v>9900</v>
       </c>
       <c r="F105" s="13"/>
     </row>
@@ -2836,13 +2830,13 @@
         <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
         <v>173</v>
       </c>
       <c r="E106" s="2">
-        <v>7650</v>
+        <v>5046</v>
       </c>
       <c r="F106" s="13"/>
     </row>
@@ -2854,55 +2848,19 @@
         <v>75</v>
       </c>
       <c r="C107" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2">
-        <v>9900</v>
+        <v>8990</v>
       </c>
       <c r="F107" s="13"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="2">
-        <v>5046</v>
-      </c>
-      <c r="F108" s="13"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" t="s">
-        <v>31</v>
-      </c>
-      <c r="D109" t="s">
-        <v>128</v>
-      </c>
-      <c r="E109" s="2">
-        <v>8990</v>
-      </c>
-      <c r="F109" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F98:F109"/>
+    <mergeCell ref="F98:F107"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F30"/>
     <mergeCell ref="F18:F20"/>

--- a/relatorio_atualizado.xlsx
+++ b/relatorio_atualizado.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="181">
   <si>
     <t>RELAÇÃO DE SERVIÇO - PROCESSO SIMPLIFICADO (de Janeiro a Outubro 2024)</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>IURD 407</t>
+  </si>
+  <si>
+    <t>Aguardando Solicitante</t>
+  </si>
+  <si>
+    <t>Acompanhamento da Execução</t>
   </si>
 </sst>
 </file>
@@ -570,7 +576,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +587,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -624,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -656,6 +668,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +962,7 @@
     <col min="1" max="1" width="74.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
   </cols>
@@ -1407,7 +1422,9 @@
       <c r="C25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="E25" s="7">
         <v>3000</v>
       </c>
@@ -1585,176 +1602,269 @@
         <v>23320</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="2">
+        <v>7085.4</v>
+      </c>
+      <c r="F35" s="13">
+        <f>SUM(E35:E38)</f>
+        <v>33008.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="2">
+        <v>14416.26</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1645.8</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2">
+        <v>9860.9</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45483.646527777775</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10148.5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10148.5</v>
+      </c>
+    </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2">
-        <v>7085.4</v>
+        <v>480</v>
       </c>
       <c r="F40" s="13">
-        <f>SUM(E40:E43)</f>
-        <v>33008.36</v>
+        <f>SUM(E40:E41)</f>
+        <v>920</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2">
-        <v>14416.26</v>
+        <v>440</v>
       </c>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>80</v>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2">
-        <v>1645.8</v>
-      </c>
-      <c r="F42" s="13"/>
+        <v>4010</v>
+      </c>
+      <c r="F42" s="13">
+        <f>SUM(E42:E43)</f>
+        <v>5920</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>80</v>
+      <c r="A43" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2">
-        <v>9860.9</v>
+        <v>1910</v>
       </c>
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>86</v>
+      <c r="A44" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="1">
-        <v>45483.646527777775</v>
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>97</v>
       </c>
       <c r="E44" s="2">
-        <v>10148.5</v>
-      </c>
-      <c r="F44" s="2">
-        <v>10148.5</v>
+        <v>1700</v>
+      </c>
+      <c r="F44" s="13">
+        <f>SUM(E44:E51)</f>
+        <v>5100</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2">
-        <v>480</v>
-      </c>
-      <c r="F45" s="13">
-        <f>SUM(E45:E46)</f>
-        <v>920</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>90</v>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2">
-        <v>4010</v>
-      </c>
-      <c r="F47" s="13">
-        <f>SUM(E47:E48)</f>
-        <v>5920</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>90</v>
+      <c r="A48" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
         <v>93</v>
       </c>
       <c r="E48" s="2">
-        <v>1910</v>
+        <v>340</v>
       </c>
       <c r="F48" s="13"/>
     </row>
@@ -1766,18 +1876,15 @@
         <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2">
-        <v>1700</v>
-      </c>
-      <c r="F49" s="13">
-        <f>SUM(E49:E56)</f>
-        <v>5100</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
@@ -1786,14 +1893,14 @@
       <c r="B50" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="2">
-        <v>340</v>
+      <c r="C50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1020</v>
       </c>
       <c r="F50" s="13"/>
     </row>
@@ -1804,126 +1911,129 @@
       <c r="B51" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="2">
-        <v>680</v>
+      <c r="C51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="7">
+        <v>340</v>
       </c>
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>95</v>
+      <c r="A52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45516.644444444442</v>
       </c>
       <c r="E52" s="2">
-        <v>340</v>
-      </c>
-      <c r="F52" s="13"/>
+        <v>3600</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3600</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="E53" s="2">
-        <v>340</v>
-      </c>
-      <c r="F53" s="13"/>
+        <v>3500</v>
+      </c>
+      <c r="F53" s="13">
+        <f>SUM(E53:E61)</f>
+        <v>48045</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2">
-        <v>340</v>
+        <v>2100</v>
       </c>
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="7">
-        <v>1020</v>
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4800</v>
       </c>
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="7">
-        <v>340</v>
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2090</v>
       </c>
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>102</v>
+      <c r="A57" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="1">
-        <v>45516.644444444442</v>
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
       </c>
       <c r="E57" s="2">
-        <v>3600</v>
-      </c>
-      <c r="F57" s="2">
-        <v>3600</v>
-      </c>
+        <v>2300</v>
+      </c>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -1933,18 +2043,15 @@
         <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2">
-        <v>3500</v>
-      </c>
-      <c r="F58" s="13">
-        <f>SUM(E58:E66)</f>
-        <v>48045</v>
-      </c>
+        <v>8790</v>
+      </c>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
@@ -1954,13 +2061,13 @@
         <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2">
-        <v>2100</v>
+        <v>6160</v>
       </c>
       <c r="F59" s="13"/>
     </row>
@@ -1972,13 +2079,13 @@
         <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="E60" s="2">
-        <v>4800</v>
+        <v>11445</v>
       </c>
       <c r="F60" s="13"/>
     </row>
@@ -1989,242 +2096,245 @@
       <c r="B61" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="2">
-        <v>2090</v>
+      <c r="C61" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="16">
+        <v>45574.486805555556</v>
+      </c>
+      <c r="E61" s="17">
+        <v>6860</v>
       </c>
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>105</v>
+      <c r="A62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" t="s">
-        <v>111</v>
+        <v>14</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45526.344444444447</v>
       </c>
       <c r="E62" s="2">
-        <v>2300</v>
-      </c>
-      <c r="F62" s="13"/>
+        <v>3234</v>
+      </c>
+      <c r="F62" s="2">
+        <v>3234</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>105</v>
+      <c r="A63" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45524.605555555558</v>
       </c>
       <c r="E63" s="2">
-        <v>8790</v>
-      </c>
-      <c r="F63" s="13"/>
+        <v>1600</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1600</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2">
-        <v>6160</v>
-      </c>
-      <c r="F64" s="13"/>
+        <v>7800</v>
+      </c>
+      <c r="F64" s="13">
+        <f>SUM(E64:E65)</f>
+        <v>15600</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2">
-        <v>11445</v>
+        <v>7800</v>
       </c>
       <c r="F65" s="13"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="7">
-        <v>6860</v>
-      </c>
-      <c r="F66" s="13"/>
+      <c r="A66" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45463.606944444444</v>
+      </c>
+      <c r="E66" s="2">
+        <v>9800</v>
+      </c>
+      <c r="F66" s="2">
+        <v>9800</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="1">
-        <v>45526.344444444447</v>
-      </c>
-      <c r="E67" s="2">
-        <v>3234</v>
-      </c>
-      <c r="F67" s="2">
-        <v>3234</v>
+      <c r="A67" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67" s="7">
+        <v>9600</v>
+      </c>
+      <c r="F67" s="13">
+        <f>SUM(E67:E68)</f>
+        <v>18590</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>117</v>
+      <c r="A68" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="1">
-        <v>45524.605555555558</v>
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>126</v>
       </c>
       <c r="E68" s="2">
-        <v>1600</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1600</v>
-      </c>
+        <v>8990</v>
+      </c>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>120</v>
+        <v>129</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45387.62777777778</v>
       </c>
       <c r="E69" s="2">
-        <v>7800</v>
+        <v>2500</v>
       </c>
       <c r="F69" s="13">
-        <f>SUM(E69:E70)</f>
-        <v>15600</v>
+        <f>SUM(E69:E81)</f>
+        <v>43410</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2">
-        <v>7800</v>
+        <v>1300</v>
       </c>
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>123</v>
+      <c r="A71" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="1">
-        <v>45463.606944444444</v>
+        <v>132</v>
+      </c>
+      <c r="D71" t="s">
+        <v>42</v>
       </c>
       <c r="E71" s="2">
-        <v>9800</v>
-      </c>
-      <c r="F71" s="2">
-        <v>9800</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E72" s="7">
-        <v>9600</v>
-      </c>
-      <c r="F72" s="13">
-        <f>SUM(E72:E73)</f>
-        <v>18590</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" s="2">
-        <v>8990</v>
+        <v>128</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="16">
+        <v>45574.486111111109</v>
+      </c>
+      <c r="E73" s="17">
+        <v>7300</v>
       </c>
       <c r="F73" s="13"/>
     </row>
@@ -2236,18 +2346,15 @@
         <v>128</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" s="1">
-        <v>45387.62777777778</v>
+        <v>135</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
       </c>
       <c r="E74" s="2">
-        <v>2500</v>
-      </c>
-      <c r="F74" s="13">
-        <f>SUM(E74:E86)</f>
-        <v>43410</v>
-      </c>
+        <v>5700</v>
+      </c>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
@@ -2257,13 +2364,13 @@
         <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2">
-        <v>1300</v>
+        <v>7800</v>
       </c>
       <c r="F75" s="13"/>
     </row>
@@ -2275,13 +2382,13 @@
         <v>128</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="E76" s="2">
-        <v>1200</v>
+        <v>2180</v>
       </c>
       <c r="F76" s="13"/>
     </row>
@@ -2292,14 +2399,14 @@
       <c r="B77" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" s="2">
-        <v>3900</v>
+      <c r="C77" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" s="16">
+        <v>45574.486111111109</v>
+      </c>
+      <c r="E77" s="17">
+        <v>5000</v>
       </c>
       <c r="F77" s="13"/>
     </row>
@@ -2310,14 +2417,14 @@
       <c r="B78" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E78" s="7">
-        <v>7300</v>
+      <c r="C78" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1550</v>
       </c>
       <c r="F78" s="13"/>
     </row>
@@ -2329,13 +2436,13 @@
         <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="E79" s="2">
-        <v>5700</v>
+        <v>1430</v>
       </c>
       <c r="F79" s="13"/>
     </row>
@@ -2346,14 +2453,14 @@
       <c r="B80" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C80" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="2">
-        <v>7800</v>
+      <c r="C80" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="16">
+        <v>45574.486805555556</v>
+      </c>
+      <c r="E80" s="17">
+        <v>2200</v>
       </c>
       <c r="F80" s="13"/>
     </row>
@@ -2365,142 +2472,145 @@
         <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E81" s="2">
-        <v>2180</v>
+        <v>1350</v>
       </c>
       <c r="F81" s="13"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F82" s="13"/>
+        <v>147</v>
+      </c>
+      <c r="C82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E82" s="2">
+        <v>8480</v>
+      </c>
+      <c r="F82" s="13">
+        <f>SUM(E82:E83)</f>
+        <v>18480</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E83" s="2">
-        <v>1550</v>
+        <v>10000</v>
       </c>
       <c r="F83" s="13"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E84" s="2">
-        <v>1430</v>
-      </c>
-      <c r="F84" s="13"/>
+        <v>7741</v>
+      </c>
+      <c r="F84" s="13">
+        <f>SUM(E84:E89)</f>
+        <v>20462</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E85" s="7">
-        <v>2200</v>
+        <v>151</v>
+      </c>
+      <c r="C85" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1094</v>
       </c>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E86" s="2">
-        <v>1350</v>
+        <v>820</v>
       </c>
       <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C87" t="s">
-        <v>148</v>
-      </c>
-      <c r="D87" t="s">
-        <v>149</v>
-      </c>
-      <c r="E87" s="2">
-        <v>8480</v>
-      </c>
-      <c r="F87" s="13">
-        <f>SUM(E87:E88)</f>
-        <v>18480</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" s="7">
+        <v>900</v>
+      </c>
+      <c r="F87" s="13"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C88" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="D88" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E88" s="2">
-        <v>10000</v>
+        <v>9257</v>
       </c>
       <c r="F88" s="13"/>
     </row>
@@ -2512,168 +2622,168 @@
         <v>151</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E89" s="2">
-        <v>7741</v>
-      </c>
-      <c r="F89" s="13">
-        <f>SUM(E89:E94)</f>
-        <v>20462</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="F89" s="13"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>151</v>
+      <c r="A90" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D90" t="s">
-        <v>154</v>
+        <v>40</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45566.62777777778</v>
       </c>
       <c r="E90" s="2">
-        <v>1094</v>
-      </c>
-      <c r="F90" s="13"/>
+        <v>8790</v>
+      </c>
+      <c r="F90" s="2">
+        <v>8790</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>151</v>
+      <c r="A91" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
-      </c>
-      <c r="D91" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45547.64166666667</v>
       </c>
       <c r="E91" s="2">
-        <v>820</v>
-      </c>
-      <c r="F91" s="13"/>
+        <v>7700</v>
+      </c>
+      <c r="F91" s="2">
+        <v>7700</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E92" s="7">
-        <v>900</v>
-      </c>
-      <c r="F92" s="13"/>
+      <c r="A92" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45537.454861111109</v>
+      </c>
+      <c r="E92" s="2">
+        <v>3330</v>
+      </c>
+      <c r="F92" s="2">
+        <v>3330</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D93" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="E93" s="2">
-        <v>9257</v>
-      </c>
-      <c r="F93" s="13"/>
+        <v>7000</v>
+      </c>
+      <c r="F93" s="13">
+        <f>SUM(E93:E102)</f>
+        <v>82508.98</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="E94" s="2">
-        <v>650</v>
+        <v>9800</v>
       </c>
       <c r="F94" s="13"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>161</v>
+      <c r="A95" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" s="1">
-        <v>45566.62777777778</v>
+        <v>31</v>
+      </c>
+      <c r="D95" t="s">
+        <v>79</v>
       </c>
       <c r="E95" s="2">
-        <v>8790</v>
-      </c>
-      <c r="F95" s="2">
-        <v>8790</v>
-      </c>
+        <v>5235</v>
+      </c>
+      <c r="F95" s="13"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>163</v>
+      <c r="A96" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>164</v>
-      </c>
-      <c r="D96" s="1">
-        <v>45547.64166666667</v>
+        <v>174</v>
+      </c>
+      <c r="D96" t="s">
+        <v>168</v>
       </c>
       <c r="E96" s="2">
-        <v>7700</v>
-      </c>
-      <c r="F96" s="2">
-        <v>7700</v>
-      </c>
+        <v>9955</v>
+      </c>
+      <c r="F96" s="13"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>166</v>
+      <c r="A97" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="1">
-        <v>45537.454861111109</v>
+        <v>175</v>
+      </c>
+      <c r="D97" t="s">
+        <v>169</v>
       </c>
       <c r="E97" s="2">
-        <v>3330</v>
-      </c>
-      <c r="F97" s="2">
-        <v>3330</v>
-      </c>
+        <v>9884.98</v>
+      </c>
+      <c r="F97" s="13"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -2683,18 +2793,15 @@
         <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="E98" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F98" s="13">
-        <f>SUM(E98:E107)</f>
-        <v>82508.98</v>
-      </c>
+        <v>9048</v>
+      </c>
+      <c r="F98" s="13"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
@@ -2704,13 +2811,13 @@
         <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="D99" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="E99" s="2">
-        <v>9800</v>
+        <v>7650</v>
       </c>
       <c r="F99" s="13"/>
     </row>
@@ -2722,13 +2829,13 @@
         <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="D100" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E100" s="2">
-        <v>5235</v>
+        <v>9900</v>
       </c>
       <c r="F100" s="13"/>
     </row>
@@ -2740,13 +2847,13 @@
         <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E101" s="2">
-        <v>9955</v>
+        <v>5046</v>
       </c>
       <c r="F101" s="13"/>
     </row>
@@ -2758,127 +2865,37 @@
         <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2">
-        <v>9884.98</v>
+        <v>8990</v>
       </c>
       <c r="F102" s="13"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" t="s">
-        <v>176</v>
-      </c>
-      <c r="D103" t="s">
-        <v>170</v>
-      </c>
-      <c r="E103" s="2">
-        <v>9048</v>
-      </c>
-      <c r="F103" s="13"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" t="s">
-        <v>177</v>
-      </c>
-      <c r="D104" t="s">
-        <v>171</v>
-      </c>
-      <c r="E104" s="2">
-        <v>7650</v>
-      </c>
-      <c r="F104" s="13"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" t="s">
-        <v>178</v>
-      </c>
-      <c r="D105" t="s">
-        <v>172</v>
-      </c>
-      <c r="E105" s="2">
-        <v>9900</v>
-      </c>
-      <c r="F105" s="13"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s">
-        <v>173</v>
-      </c>
-      <c r="E106" s="2">
-        <v>5046</v>
-      </c>
-      <c r="F106" s="13"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C107" t="s">
-        <v>31</v>
-      </c>
-      <c r="D107" t="s">
-        <v>126</v>
-      </c>
-      <c r="E107" s="2">
-        <v>8990</v>
-      </c>
-      <c r="F107" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F98:F107"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F93:F102"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F30"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F56"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F89:F94"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F74:F86"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F58:F66"/>
-    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F84:F89"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F69:F81"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F53:F61"/>
+    <mergeCell ref="F64:F65"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
